--- a/src/test/resources/testdata/excels/LoginKeywords.xlsx
+++ b/src/test/resources/testdata/excels/LoginKeywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14205" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14385" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -190,6 +191,12 @@
   </si>
   <si>
     <t>btn_login</t>
+  </si>
+  <si>
+    <t>Validate Title</t>
+  </si>
+  <si>
+    <t>validateTitle</t>
   </si>
 </sst>
 </file>
@@ -543,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -665,9 +672,23 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
